--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_81.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,405 +488,451 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>[['Bb:7', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (27.36, 34.92)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(4.16, 6.7), (1.64, 5.02)]</t>
+          <t>[('0:00:49.981485', '0:00:59.292687')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.100000', '0:00:12.860000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_0</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2112068965517241</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A', 'F#:7', 'B:7', 'E:7', 'A']]</t>
-        </is>
+          <t>isophonics_274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1385964912280702</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Ab/5', 'F:7', 'Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>[['Db', 'Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.544421, 28.741065)]</t>
+          <t>[['C', 'G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(22.62, 25.87)]</t>
+          <t>[('0:00:03.802834', '0:00:06.531178')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_217</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1323529411764706</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'G']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1480769230769231</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['E', 'E:7/3', 'A'], ['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.921541)]</t>
+          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(6.09, 13.659705)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+          <t>[('0:00:20.410362', '0:00:24.856984'), ('0:00:02.612267', '0:00:17.443474')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:53.320000', '0:01:01.840000'), ('0:00:16.920000', '0:00:23.900000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_59</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08488372093023255</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F#/4', 'B', 'E/5']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'C']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(127.431, 132.656)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(102.452811, 111.264784)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:10.200000', '0:00:18.840000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:18.300000', '0:00:21.320000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2932330827067669</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_252</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.07857142857142857</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C:min', 'F:min/5', 'C:min'], ['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
+          <t>[['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(62.2, 64.4)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:17.357000', '0:00:22.981000'), ('0:00:07.523000', '0:00:10.397000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:09.600000', '0:00:13.300000'), ('0:00:14.620000', '0:00:19.560000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.06361746361746362</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.648526, 21.12535), (1.129708, 6.12526)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(94.8, 106.96), (40.82, 43.62)]</t>
+          <t>[('0:00:19.520000', '0:00:23.120000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>[('0:01:04.300000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1571428571428571</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.129454, 7.192947)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.965212, 31.142537)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98)]</t>
+          <t>[('0:00:00.560000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>[('0:00:01.640000', '0:00:23.800000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3392857142857143</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A', 'D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4487804878048781</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.91585, 23.621065)]</t>
+          <t>[['A', 'D/5', 'A', 'D/5']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(20.432, 30.105)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2546296296296297</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_275</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'A', 'B', 'A']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(67.115538, 72.490957)]</t>
+          <t>[['D:7', 'G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(51.652811, 71.192403)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:53.960000', '0:01:05.560000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:07.102281', '0:00:24.401147')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -889,232 +940,212 @@
           <t>schubert-winterreise_126</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.2527173913043478</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_107</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.45</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
+          <t>[['B:7', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:57.420000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.384180', '0:00:21.737596')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(154.76, 159.84)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(58.08, 65.66), (87.66, 96.72)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(75.52, 79.7), (10.26, 15.94)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1441176470588235</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(36.711, 39.787)]</t>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:01.440000', '0:02:06.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_62</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'B', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(21.577709, 29.878843)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(60.040123, 71.429511)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
